--- a/team_specific_matrix/York (NE)_A.xlsx
+++ b/team_specific_matrix/York (NE)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
